--- a/صيدليات دكتور مصطفي طلعت_2026-01-06_17-34.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-06_17-34.xlsx
@@ -126,9 +126,6 @@
   </si>
   <si>
     <t>FLUMOX 1000MG 15 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>FUNGICARE SOAP 80 GM</t>
   </si>
   <si>
     <t>GLOMETHASONE 8MG/2ML IM/IV 3 AMP</t>
@@ -1350,17 +1347,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1376,17 +1373,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1402,13 +1399,13 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
@@ -1428,13 +1425,13 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>39</v>
+        <v>-290</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
@@ -1454,13 +1451,13 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>-290</v>
+        <v>200</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
@@ -1480,13 +1477,13 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>200</v>
+        <v>52</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
@@ -1506,13 +1503,13 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
@@ -1532,13 +1529,13 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
@@ -1558,13 +1555,13 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
@@ -1584,17 +1581,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>35</v>
+        <v>-57</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1610,17 +1607,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>-57</v>
+        <v>39</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1636,17 +1633,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1662,17 +1659,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1688,13 +1685,13 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
@@ -1714,13 +1711,13 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
@@ -1740,17 +1737,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>160</v>
+        <v>67</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1766,13 +1763,13 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>67</v>
+        <v>7.0499999999999998</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
@@ -1784,7 +1781,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1792,17 +1789,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>7.0499999999999998</v>
+        <v>-185</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1818,17 +1815,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>-185</v>
+        <v>71</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1844,17 +1841,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>71</v>
+        <v>45.5</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1862,7 +1859,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1870,17 +1867,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>45.5</v>
+        <v>70</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1896,13 +1893,13 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
@@ -1922,13 +1919,13 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
@@ -1948,13 +1945,13 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>122</v>
+        <v>26</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
@@ -1966,7 +1963,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -1974,17 +1971,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -1992,7 +1989,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2000,17 +1997,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2018,7 +2015,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2026,17 +2023,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2052,13 +2049,13 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
@@ -2078,13 +2075,13 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
@@ -2096,7 +2093,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2104,17 +2101,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>9</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2122,7 +2119,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2130,17 +2127,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>42</v>
+        <v>190</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>77</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2156,13 +2153,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2182,13 +2179,13 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
@@ -2208,13 +2205,13 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>85</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
@@ -2234,13 +2231,13 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>68.599999999999994</v>
+        <v>30</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
@@ -2252,7 +2249,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2260,77 +2257,51 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" ht="24.75" customHeight="1">
-      <c r="A59" s="6">
-        <v>56</v>
-      </c>
-      <c t="s" r="B59" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="K59" s="10">
+        <v>2007.3199999999999</v>
+      </c>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
+    </row>
+    <row r="60" ht="16.5" customHeight="1">
+      <c t="s" r="A60" s="11">
         <v>84</v>
       </c>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c t="s" r="H59" s="8">
-        <v>83</v>
-      </c>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="9">
-        <v>70</v>
-      </c>
-      <c r="M59" s="9"/>
-      <c t="s" r="N59" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" ht="26.25" customHeight="1">
-      <c r="K60" s="10">
-        <v>2057.3200000000002</v>
-      </c>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="10"/>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c t="s" r="A61" s="11">
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c t="s" r="F60" s="12">
         <v>85</v>
       </c>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c t="s" r="F61" s="12">
+      <c r="G60" s="12"/>
+      <c r="H60" s="13"/>
+      <c t="s" r="I60" s="14">
         <v>86</v>
       </c>
-      <c r="G61" s="12"/>
-      <c r="H61" s="13"/>
-      <c t="s" r="I61" s="14">
-        <v>87</v>
-      </c>
-      <c r="J61" s="14"/>
-      <c r="K61" s="14"/>
-      <c r="L61" s="14"/>
-      <c r="M61" s="14"/>
-      <c r="N61" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="14"/>
+      <c r="N60" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="179">
+  <mergeCells count="176">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2503,13 +2474,10 @@
     <mergeCell ref="B58:G58"/>
     <mergeCell ref="H58:K58"/>
     <mergeCell ref="L58:M58"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="H59:K59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="I61:N61"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="I60:N60"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
